--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H2">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I2">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J2">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>8691.83600922082</v>
+        <v>14033.01109638158</v>
       </c>
       <c r="R2">
-        <v>34767.34403688328</v>
+        <v>56132.04438552634</v>
       </c>
       <c r="S2">
-        <v>0.06118877141860032</v>
+        <v>0.07289403971805</v>
       </c>
       <c r="T2">
-        <v>0.03528270327369819</v>
+        <v>0.04360370393342235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H3">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I3">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J3">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>6272.312449861127</v>
+        <v>8268.784627578159</v>
       </c>
       <c r="R3">
-        <v>37633.87469916676</v>
+        <v>49612.70776546896</v>
       </c>
       <c r="S3">
-        <v>0.04415581384110798</v>
+        <v>0.04295194459142853</v>
       </c>
       <c r="T3">
-        <v>0.03819172475877371</v>
+        <v>0.03853944470439988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H4">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I4">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J4">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>4464.394782768657</v>
+        <v>5403.682037247037</v>
       </c>
       <c r="R4">
-        <v>26786.36869661194</v>
+        <v>32422.09222348222</v>
       </c>
       <c r="S4">
-        <v>0.03142843831791432</v>
+        <v>0.02806925828971695</v>
       </c>
       <c r="T4">
-        <v>0.02718342527113441</v>
+        <v>0.02518567291982265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H5">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I5">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J5">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>7388.989303773215</v>
+        <v>11978.003781133</v>
       </c>
       <c r="R5">
-        <v>29555.95721509286</v>
+        <v>47912.01512453202</v>
       </c>
       <c r="S5">
-        <v>0.05201699353777758</v>
+        <v>0.06221936812905376</v>
       </c>
       <c r="T5">
-        <v>0.02999406763093439</v>
+        <v>0.03721833660636158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H6">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I6">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J6">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>6429.112222953683</v>
+        <v>4167.122423075196</v>
       </c>
       <c r="R6">
-        <v>38574.6733377221</v>
+        <v>25002.73453845118</v>
       </c>
       <c r="S6">
-        <v>0.04525965260015389</v>
+        <v>0.02164598783050519</v>
       </c>
       <c r="T6">
-        <v>0.03914646893391787</v>
+        <v>0.01942227200657045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H7">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I7">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J7">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>4205.808355327536</v>
+        <v>6005.890914038912</v>
       </c>
       <c r="R7">
-        <v>25234.85013196521</v>
+        <v>36035.34548423348</v>
       </c>
       <c r="S7">
-        <v>0.0296080420536657</v>
+        <v>0.03119741357171115</v>
       </c>
       <c r="T7">
-        <v>0.02560890841756079</v>
+        <v>0.02799246941446262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J8">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>681.2066079264847</v>
+        <v>834.2653398922115</v>
       </c>
       <c r="R8">
-        <v>4087.239647558908</v>
+        <v>5005.592039353269</v>
       </c>
       <c r="S8">
-        <v>0.004795557046524439</v>
+        <v>0.004333565362687982</v>
       </c>
       <c r="T8">
-        <v>0.004147825141326019</v>
+        <v>0.003888373489416942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J9">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>491.5809137784213</v>
       </c>
       <c r="R9">
-        <v>4424.228224005791</v>
+        <v>4424.228224005792</v>
       </c>
       <c r="S9">
-        <v>0.003460630427797377</v>
+        <v>0.002553501768614662</v>
       </c>
       <c r="T9">
-        <v>0.004489808927513076</v>
+        <v>0.003436766640610405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J10">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>349.888702822772</v>
+        <v>321.2499869422716</v>
       </c>
       <c r="R10">
-        <v>3148.998325404948</v>
+        <v>2891.249882480444</v>
       </c>
       <c r="S10">
-        <v>0.00246314585736097</v>
+        <v>0.001668723066400989</v>
       </c>
       <c r="T10">
-        <v>0.003195676189897286</v>
+        <v>0.002245940001888234</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J11">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>579.0984015677087</v>
+        <v>712.094740541734</v>
       </c>
       <c r="R11">
-        <v>3474.590409406252</v>
+        <v>4272.568443250404</v>
       </c>
       <c r="S11">
-        <v>0.004076735880061761</v>
+        <v>0.003698953983828034</v>
       </c>
       <c r="T11">
-        <v>0.003526094552481904</v>
+        <v>0.003318956426301325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J12">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>503.8698066473974</v>
+        <v>247.7362684873596</v>
       </c>
       <c r="R12">
-        <v>4534.828259826576</v>
+        <v>2229.626416386236</v>
       </c>
       <c r="S12">
-        <v>0.003547141753592035</v>
+        <v>0.001286858342139804</v>
       </c>
       <c r="T12">
-        <v>0.004602048396877932</v>
+        <v>0.001731986981883579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J13">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>329.6224687490823</v>
+        <v>357.0514261225218</v>
       </c>
       <c r="R13">
-        <v>2966.602218741741</v>
+        <v>3213.462835102696</v>
       </c>
       <c r="S13">
-        <v>0.002320475659380324</v>
+        <v>0.001854692528809625</v>
       </c>
       <c r="T13">
-        <v>0.003010576410551223</v>
+        <v>0.002496236928420224</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H14">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I14">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J14">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>7491.455754125012</v>
+        <v>7695.658214432581</v>
       </c>
       <c r="R14">
-        <v>44948.73452475007</v>
+        <v>46173.94928659548</v>
       </c>
       <c r="S14">
-        <v>0.05273833666965446</v>
+        <v>0.03997485726238982</v>
       </c>
       <c r="T14">
-        <v>0.04561501336088713</v>
+        <v>0.03586819678794225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H15">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I15">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J15">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>5406.078893381515</v>
+        <v>4534.574932318245</v>
       </c>
       <c r="R15">
-        <v>48654.71004043363</v>
+        <v>40811.17439086421</v>
       </c>
       <c r="S15">
-        <v>0.03805770441677891</v>
+        <v>0.02355470846211408</v>
       </c>
       <c r="T15">
-        <v>0.04937592286035131</v>
+        <v>0.03170236154401247</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H16">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I16">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J16">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>3847.842498245212</v>
+        <v>2963.36187383509</v>
       </c>
       <c r="R16">
-        <v>34630.58248420691</v>
+        <v>26670.25686451581</v>
       </c>
       <c r="S16">
-        <v>0.02708803466035581</v>
+        <v>0.01539309109404101</v>
       </c>
       <c r="T16">
-        <v>0.03514391449313412</v>
+        <v>0.02071761320791181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H17">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I17">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J17">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>6368.537830004716</v>
+        <v>6568.698802963891</v>
       </c>
       <c r="R17">
-        <v>38211.2269800283</v>
+        <v>39412.19281778335</v>
       </c>
       <c r="S17">
-        <v>0.04483322109822003</v>
+        <v>0.03412090164758873</v>
       </c>
       <c r="T17">
-        <v>0.03877763518058851</v>
+        <v>0.03061562438721188</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H18">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I18">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J18">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>5541.223937666011</v>
+        <v>2285.236552970001</v>
       </c>
       <c r="R18">
-        <v>49871.01543899409</v>
+        <v>20567.12897673001</v>
       </c>
       <c r="S18">
-        <v>0.03900909825512424</v>
+        <v>0.01187059020428536</v>
       </c>
       <c r="T18">
-        <v>0.05061025765515415</v>
+        <v>0.0159766673827595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H19">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I19">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J19">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>3624.967978093505</v>
+        <v>3293.611287710534</v>
       </c>
       <c r="R19">
-        <v>32624.71180284155</v>
+        <v>29642.5015893948</v>
       </c>
       <c r="S19">
-        <v>0.02551904301645852</v>
+        <v>0.0171085614037671</v>
       </c>
       <c r="T19">
-        <v>0.03310831062356775</v>
+        <v>0.02302647048221977</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H20">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I20">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J20">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>1246.033112187067</v>
+        <v>2319.107375678687</v>
       </c>
       <c r="R20">
-        <v>4984.132448748266</v>
+        <v>9276.429502714747</v>
       </c>
       <c r="S20">
-        <v>0.008771821649734094</v>
+        <v>0.012046531139474</v>
       </c>
       <c r="T20">
-        <v>0.005058012659219518</v>
+        <v>0.007205985280306933</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H21">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I21">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J21">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>899.1781476570638</v>
+        <v>1366.506395955152</v>
       </c>
       <c r="R21">
-        <v>5395.068885942384</v>
+        <v>8199.038375730912</v>
       </c>
       <c r="S21">
-        <v>0.00633003269772007</v>
+        <v>0.007098274975882311</v>
       </c>
       <c r="T21">
-        <v>0.005475040441453599</v>
+        <v>0.006369061483289257</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H22">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I22">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J22">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>640.000998558141</v>
+        <v>893.0170996325473</v>
       </c>
       <c r="R22">
-        <v>3840.005991348846</v>
+        <v>5358.102597795284</v>
       </c>
       <c r="S22">
-        <v>0.004505477872213171</v>
+        <v>0.00463874955149844</v>
       </c>
       <c r="T22">
-        <v>0.003896926720035133</v>
+        <v>0.004162205775270304</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H23">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I23">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J23">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>1059.261280163389</v>
+        <v>1979.495115050211</v>
       </c>
       <c r="R23">
-        <v>4237.045120653554</v>
+        <v>7917.980460200843</v>
       </c>
       <c r="S23">
-        <v>0.007456985644429094</v>
+        <v>0.01028242581347079</v>
       </c>
       <c r="T23">
-        <v>0.004299851193427301</v>
+        <v>0.006150734032880593</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H24">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I24">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J24">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>921.6564490250919</v>
+        <v>688.6622037376992</v>
       </c>
       <c r="R24">
-        <v>5529.938694150552</v>
+        <v>4131.973222426195</v>
       </c>
       <c r="S24">
-        <v>0.006488275403038896</v>
+        <v>0.003577234400143787</v>
       </c>
       <c r="T24">
-        <v>0.005611909436063634</v>
+        <v>0.003209741227560877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H25">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I25">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J25">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>602.9308961526218</v>
+        <v>992.5386519405425</v>
       </c>
       <c r="R25">
-        <v>3617.585376915731</v>
+        <v>5955.231911643255</v>
       </c>
       <c r="S25">
-        <v>0.004244511832339765</v>
+        <v>0.005155711159874249</v>
       </c>
       <c r="T25">
-        <v>0.003671209146306405</v>
+        <v>0.00462605935651824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H26">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I26">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J26">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>7680.283924305907</v>
+        <v>22572.63458862507</v>
       </c>
       <c r="R26">
-        <v>46081.70354583544</v>
+        <v>135435.8075317504</v>
       </c>
       <c r="S26">
-        <v>0.05406764888059976</v>
+        <v>0.1172528483689815</v>
       </c>
       <c r="T26">
-        <v>0.04676477647614956</v>
+        <v>0.1052073359922225</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H27">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I27">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J27">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>5542.343461817188</v>
+        <v>13300.65604654794</v>
       </c>
       <c r="R27">
-        <v>49881.09115635469</v>
+        <v>119705.9044189314</v>
       </c>
       <c r="S27">
-        <v>0.03901697947921904</v>
+        <v>0.06908984418769418</v>
       </c>
       <c r="T27">
-        <v>0.05062048272571251</v>
+        <v>0.09298825425840931</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H28">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I28">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J28">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>3944.830464527713</v>
+        <v>8692.029046520585</v>
       </c>
       <c r="R28">
-        <v>35503.47418074942</v>
+        <v>78228.26141868527</v>
       </c>
       <c r="S28">
-        <v>0.02777081036998944</v>
+        <v>0.0451504745628605</v>
       </c>
       <c r="T28">
-        <v>0.03602974513600728</v>
+        <v>0.06076817595844161</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H29">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I29">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J29">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>6529.061950367495</v>
+        <v>19267.0767945449</v>
       </c>
       <c r="R29">
-        <v>39174.37170220498</v>
+        <v>115602.4607672694</v>
       </c>
       <c r="S29">
-        <v>0.0459632785104434</v>
+        <v>0.1000822312094098</v>
       </c>
       <c r="T29">
-        <v>0.03975505667721298</v>
+        <v>0.08980067497008591</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H30">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I30">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J30">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>5680.8949456855</v>
+        <v>6702.975654768521</v>
       </c>
       <c r="R30">
-        <v>51128.0545111695</v>
+        <v>60326.78089291669</v>
       </c>
       <c r="S30">
-        <v>0.039992353964786</v>
+        <v>0.03481839857832124</v>
       </c>
       <c r="T30">
-        <v>0.0518859299222091</v>
+        <v>0.04686220005180227</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H31">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I31">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J31">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>3716.338212762626</v>
+        <v>9660.705036904033</v>
       </c>
       <c r="R31">
-        <v>33447.04391486363</v>
+        <v>86946.3453321363</v>
       </c>
       <c r="S31">
-        <v>0.02616227102923989</v>
+        <v>0.05018223186939747</v>
       </c>
       <c r="T31">
-        <v>0.03394283223298747</v>
+        <v>0.06754043508404847</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H32">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I32">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J32">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>7175.548257063917</v>
+        <v>6731.433552953324</v>
       </c>
       <c r="R32">
-        <v>43053.2895423835</v>
+        <v>40388.60131771994</v>
       </c>
       <c r="S32">
-        <v>0.05051441164315982</v>
+        <v>0.03496622224541077</v>
       </c>
       <c r="T32">
-        <v>0.04369147203965439</v>
+        <v>0.03137410428252619</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H33">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I33">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J33">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>5178.109736494671</v>
+        <v>3966.417036367656</v>
       </c>
       <c r="R33">
-        <v>46602.98762845204</v>
+        <v>35697.75332730891</v>
       </c>
       <c r="S33">
-        <v>0.03645284755840722</v>
+        <v>0.02060342994112545</v>
       </c>
       <c r="T33">
-        <v>0.04729378759614629</v>
+        <v>0.02773022583110616</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H34">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I34">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J34">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>3685.582674173418</v>
+        <v>2592.068539331167</v>
       </c>
       <c r="R34">
-        <v>33170.24406756076</v>
+        <v>23328.6168539805</v>
       </c>
       <c r="S34">
-        <v>0.02594575824430072</v>
+        <v>0.01346441941506294</v>
       </c>
       <c r="T34">
-        <v>0.03366192935849031</v>
+        <v>0.01812180749182728</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H35">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I35">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J35">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>6099.982703758673</v>
+        <v>5745.676105858045</v>
       </c>
       <c r="R35">
-        <v>36599.89622255204</v>
+        <v>34474.05663514827</v>
       </c>
       <c r="S35">
-        <v>0.04294264720615282</v>
+        <v>0.02984573584321197</v>
       </c>
       <c r="T35">
-        <v>0.03714241953306864</v>
+        <v>0.02677965100609517</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H36">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I36">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J36">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>5307.555844006215</v>
+        <v>1998.908680773823</v>
       </c>
       <c r="R36">
-        <v>47768.00259605594</v>
+        <v>17990.17812696441</v>
       </c>
       <c r="S36">
-        <v>0.0373641220319648</v>
+        <v>0.01038326897686648</v>
       </c>
       <c r="T36">
-        <v>0.04847607167766195</v>
+        <v>0.01397487672763179</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H37">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I37">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J37">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>3472.106558568257</v>
+        <v>2880.939474533978</v>
       </c>
       <c r="R37">
-        <v>31248.95902711431</v>
+        <v>25928.4552708058</v>
       </c>
       <c r="S37">
-        <v>0.02444292947173327</v>
+        <v>0.01496495050418133</v>
       </c>
       <c r="T37">
-        <v>0.03171216494984426</v>
+        <v>0.02014137734435911</v>
       </c>
     </row>
   </sheetData>
